--- a/botWhatsapp/numeros.xlsx
+++ b/botWhatsapp/numeros.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,35 +482,4564 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>+55 47 9662-4664</t>
+          <t>+55 49 8852-0246</t>
         </is>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>+55 47 9734-8584</t>
+          <t>+1 (954) 651-3083</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>+55 34 9197-3964</t>
+          <t>+49 176 62417362</t>
         </is>
       </c>
     </row>
     <row r="5" ht="32.25" customFormat="1" customHeight="1" s="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>+55 47 99924-8948</t>
+          <t>+55 11 91043-9383</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>+55 11 99457-3760</t>
+          <t>+55 11 91219-7323</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>+55 11 91944-7460</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>+55 11 93393-5108</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>+55 11 93761-8868</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>+55 11 94006-1288</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>+55 11 94151-4948</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>+55 11 94159-9637</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>+55 11 94182-2428</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>+55 11 94543-9252</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>+55 11 94564-2517</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>+55 11 94577-8223</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>+55 11 94630-0082</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>+55 11 94995-1852</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>+55 11 95069-2463</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>+55 11 95216-3955</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>+55 11 95249-6993</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>+55 11 95636-2136</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>+55 11 96061-9886</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>+55 11 96468-2206</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>+55 11 96678-2500</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>+55 11 96900-3591</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>+55 11 97177-0712</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>+55 11 97188-2214</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>+55 11 97210-6165</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>+55 11 97419-7725</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>+55 11 97583-2098</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>+55 11 97714-2096</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>+55 11 97717-8598</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>+55 11 98064-0466</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>+55 11 98392-4211</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>+55 11 98531-5846</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>+55 11 98664-1569</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>+55 11 98963-3264</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>+55 11 98976-2896</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>+55 11 99165-6302</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>+55 11 99696-9492</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>+55 11 99734-7180</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>+55 12 99105-1232</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>+55 12 99111-2912</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>+55 13 98166-6132</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>+55 13 98873-5738</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>+55 13 99800-6385</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>+55 14 98230-7825</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>+55 14 98802-2029</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>+55 14 99643-2732</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>+55 14 99689-0999</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>+55 14 99718-3636</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>+55 14 99770-9416</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>+55 14 99771-0460</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>+55 14 99900-7450</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>+55 16 98251-2205</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>+55 16 99142-0122</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>+55 16 99707-2269</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>+55 16 99750-5196</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>+55 16 99985-0619</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>+55 17 99747-3991</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>+55 18 98103-1859</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>+55 18 98124-8266</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>+55 19 99138-5731</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>+55 19 99260-1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>+55 19 99754-9199</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>+55 19 99846-9294</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>+55 19 99858-1503</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>+55 19 99983-7100</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>+55 21 96443-2218</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>+55 21 96700-4746</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>+55 21 96982-3263</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>+55 21 97018-2315</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>+55 21 97241-7865</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>+55 21 97320-2741</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>+55 21 97486-5781</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>+55 21 97568-4139</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>+55 21 97573-1735</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>+55 21 97725-6298</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>+55 21 98012-3620</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>+55 21 98202-9247</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>+55 21 98225-0672</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>+55 21 98266-9929</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>+55 21 98760-9619</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>+55 21 99319-4345</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>+55 21 99433-4302</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>+55 21 99560-7502</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>+55 21 99974-9851</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>+55 22 99217-0831</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>+55 22 99823-3413</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>+55 22 99886-8918</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>+55 24 99228-8787</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>+55 24 99946-3115</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>+55 27 99602-4041</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>+55 28 98808-1486</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>+55 28 99994-4622</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>+55 31 7145-6747</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>+55 31 8224-6835</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>+55 31 8574-8946</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>+55 31 9172-7250</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>+55 32 8899-4657</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>+55 34 9893-9026</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>+55 35 8474-7260</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>+55 35 8815-3650</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>+55 35 9712-0770</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>+55 37 9663-8516</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>+55 41 9179-9934</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>+55 41 9729-3371</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>+55 41 9920-9691</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>+55 45 9987-1163</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>+55 47 9200-0507</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>+55 47 9670-9850</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>+55 47 9680-7918</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>+55 48 8860-2042</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>+55 48 9622-5036</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>+55 48 9651-5216</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>+55 48 9900-7338</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>+55 49 3226-3957</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>+55 51 8143-5402</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>+55 51 8465-2428</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>+55 51 8474-8383</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>+55 51 9152-1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>+55 51 9380-2869</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>+55 51 9565-0932</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>+55 51 9847-3159</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>+55 54 9994-0218</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>+55 55 9912-5740</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>+55 55 9998-4726</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>+55 61 8124-8241</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>+55 61 8219-4004</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>+55 61 9187-8558</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>+55 61 9587-9915</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>+55 61 9997-1373</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>+55 62 8181-2210</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>+55 62 8196-7717</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>+55 62 9602-5627</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>+55 64 9944-6063</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>+55 65 9906-0820</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>+55 66 8128-7152</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>+55 66 9220-5810</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>+55 66 9997-4615</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>+55 66 9999-9078</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>+55 67 8156-5688</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>+55 67 9213-4520</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>+55 67 9953-9644</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>+55 67 9999-9436</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>+55 68 9981-6723</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>+55 71 8422-2349</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>+55 79 9135-3946</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>+55 81 8300-6192</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>+55 81 8542-8619</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>+55 83 8612-4704</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>+55 83 8680-1256</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>+55 83 8853-8410</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>+55 84 8177-5155</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>+55 84 9673-8419</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>+55 85 8596-1359</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>+55 85 8596-1811</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>+55 85 9162-0291</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>+55 91 8911-2724</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>+55 92 9454-3501</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>+55 98 9112-1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>+55 91 9227-8038</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>+55 15 99856-5444</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>+55 71 8186-4028</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>+55 35 9136-7956</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>+55 92 9528-7002</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>+55 15 99822-1645</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>+55 33 9113-4442</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>+55 11 98638-8616</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>+55 34 9819-8066</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>+55 54 9158-8447</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>+55 85 8959-3580</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>+55 85 8152-8544</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>+55 65 9646-7765</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>+55 41 9757-4699</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>+55 21 99210-3764</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>+55 31 9153-7979</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>+55 11 95124-7670</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>+55 86 8899-6334</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>+55 12 98123-5501</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>+55 11 98803-9596</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>+55 62 9382-7283</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>+55 12 99184-6607</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>+1 (825) 785-4560</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>+55 13 98153-1530</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>+55 18 99630-7422</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>+55 44 9728-8401</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>+55 11 98572-5312</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>+55 35 9752-4280</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>+55 11 93149-8052</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>+55 41 9534-8154</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>+55 35 9977-3607</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>+55 11 98775-3560</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>+55 92 8424-5511</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>+55 73 9916-1219</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>+55 92 9386-3868</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>+55 98 7009-7564</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>+55 21 98207-2592</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>+55 35 9747-4027</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>+55 15 99133-3621</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>+55 77 9901-8159</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>+55 67 9603-9369</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>+55 53 8409-2676</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>+55 13 99724-7319</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>+55 51 8986-8320</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>+55 11 97766-1381</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>+55 48 8438-0909</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>+55 51 9130-4011</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>+55 47 9910-4022</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>+55 21 98088-6732</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>+55 41 9776-0662</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>+55 41 9564-5897</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>+55 35 9969-3127</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>+1 (407) 350-1087</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>+55 92 8805-4660</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>+55 38 9259-0948</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>+1 (540) 935-4646</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>+55 11 96511-0843</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>+55 66 9669-3115</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>+55 51 9240-6993</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>+55 79 9866-8875</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>+55 47 9680-0618</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>+55 41 9855-7377</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>+55 51 9317-6575</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>+55 19 99605-3461</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>+55 34 9720-1011</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>+55 21 96466-1899</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>+55 35 9864-5727</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>+55 19 98131-2129</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>+55 54 9371-1755</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>+55 12 98174-7672</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>+55 51 9293-2697</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>+55 38 9835-7019</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>+55 11 94140-5224</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>+55 95 9161-9901</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>+55 62 9549-0611</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>+55 34 9908-8539</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>+55 19 99881-1407</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>+1 (774) 540-0805</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>+39 389 945 0917</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>+55 11 91036-9022</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>+55 11 91115-7120</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>+55 11 91346-6271</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>+55 11 91481-4400</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>+55 11 91482-3821</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>+55 11 91626-4700</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>+55 11 93201-5693</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>+55 11 93221-3068</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>+55 11 93412-5591</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>+55 11 93505-1070</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>+55 11 93902-3469</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>+55 11 94075-9783</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>+55 11 94165-7036</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>+55 11 94205-3328</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>+55 11 94224-0103</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>+55 11 94341-8083</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>+55 11 94524-9548</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>+55 11 94554-9598</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>+55 11 94577-8144</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>+55 11 94722-7466</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>+55 11 94777-4663</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>+55 11 94819-6235</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>+55 11 94856-4386</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>+55 11 94871-9452</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>+55 11 94892-0316</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>+55 11 94917-7085</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>+55 11 95229-5395</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>+55 11 95333-7516</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>+55 11 95447-0910</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>+55 11 95490-6869</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>+55 11 95497-4742</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>+55 11 95725-1044</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>+55 11 95806-4336</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>+55 11 95959-2787</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>+55 11 95962-6778</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>+55 11 95979-4421</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>+55 11 96103-8501</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>+55 11 96195-0609</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>+55 11 96257-9889</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>+55 11 96368-7242</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>+55 11 96451-7931</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>+55 11 96462-0041</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>+55 11 96596-7804</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>+55 11 96913-2697</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>+55 11 97024-5296</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>+55 11 97157-4309</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>+55 11 97162-5550</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>+55 11 97171-6100</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>+55 11 97360-1312</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>+55 11 97451-3471</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>+55 11 97462-0099</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>+55 11 97609-7242</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>+55 11 97681-9370</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>+55 11 97699-0719</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>+55 11 97713-0089</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>+55 11 97787-8193</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>+55 11 97827-5431</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>+55 11 97863-4599</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>+55 11 97885-5089</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>+55 11 98126-8936</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>+55 11 98145-9137</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>+55 11 98158-0255</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>+55 11 98165-2190</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>+55 11 98236-8648</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>+55 11 98252-8173</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>+55 11 98274-3742</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>+55 11 98276-2762</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>+55 11 98409-9905</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>+55 11 98483-2044</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>+55 11 98557-0072</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>+55 11 98695-4755</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>+55 11 98724-8504</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>+55 11 98736-8041</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>+55 11 98770-0120</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>+55 11 98822-8191</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>+55 11 98831-3990</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>+55 11 98918-3018</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>+55 11 99102-5459</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>+55 11 99122-0176</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>+55 11 99167-5891</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>+55 11 99230-4515</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>+55 11 99639-3040</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>+55 11 99709-7561</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>+55 11 99795-5925</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>+55 11 99804-8219</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>+55 11 99838-6923</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>+55 11 99913-5601</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>+55 11 99970-3208</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>+55 12 98165-1273</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>+55 12 98180-0953</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>+55 12 98183-4683</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>+55 12 98210-1380</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>+55 12 98809-6697</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>+55 12 98875-1513</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>+55 12 98889-7461</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>+55 12 98896-0410</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>+55 12 99627-7736</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>+55 12 99660-5352</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>+55 12 99752-5261</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>+55 13 97413-4077</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>+55 13 97414-5257</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>+55 13 98176-3143</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>+55 13 99110-8259</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>+55 13 99118-2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>+55 13 99162-3242</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>+55 13 99655-0341</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>+55 14 98821-8146</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>+55 14 98824-9335</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>+55 14 99155-7903</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>+55 14 99640-0909</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>+55 14 99651-3918</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>+55 14 99693-2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>+55 14 99793-6527</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>+55 14 99880-7250</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>+55 15 99628-6813</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>+55 15 99677-5064</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>+55 15 99723-2324</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>+55 16 98845-6984</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>+55 16 99148-9681</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>+55 16 99196-6514</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>+55 16 99358-4783</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>+55 16 99407-2499</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>+55 16 99442-8848</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>+55 16 99796-6921</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>+55 17 98174-4796</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>+55 17 98842-0969</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>+55 17 99123-9694</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>+55 17 99135-1700</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>+55 17 99186-2871</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>+55 17 99189-0652</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>+55 17 99243-8731</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>+55 17 99268-9784</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>+55 18 99680-5134</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>+55 18 99681-8824</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>+55 18 99718-7961</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>+55 19 97165-4381</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>+55 19 97401-0956</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>+55 19 97417-6180</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>+55 19 98179-2884</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>+55 19 98186-3591</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>+55 19 98194-1263</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>+55 19 98238-3137</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>+55 19 98363-2540</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>+55 19 98412-9963</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>+55 19 98866-5732</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>+55 19 99144-6051</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>+55 19 99169-1510</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>+55 19 99226-4685</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>+55 19 99266-9572</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>+55 19 99300-9846</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>+55 19 99309-8527</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>+55 19 99357-2512</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>+55 19 99422-8402</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>+55 19 99513-8771</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>+55 19 99636-3880</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>+55 19 99769-4036</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>+55 19 99889-5782</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>+55 19 99980-1073</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>+55 19 99985-5915</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>+55 21 96021-5900</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>+55 21 96561-5349</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>+55 21 96813-0171</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>+55 21 97028-1953</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>+55 21 97065-9183</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>+55 21 97283-2767</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>+55 21 97319-9143</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>+55 21 97374-7081</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>+55 21 97395-6140</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>+55 21 97464-1692</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>+55 21 97503-9728</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>+55 21 97550-3184</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>+55 21 97668-1139</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>+55 21 97739-7012</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>+55 21 97882-1834</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>+55 21 97922-5942</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>+55 21 97939-0498</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>+55 21 97953-5988</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>+55 21 98015-6603</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>+55 21 98170-7485</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>+55 21 98271-7960</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>+55 21 98341-8405</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>+55 21 98376-5607</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>+55 21 98396-7903</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>+55 21 98489-2980</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>+55 21 98693-0918</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>+55 21 98731-8563</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>+55 21 98831-8599</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>+55 21 99105-1187</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>+55 21 99128-9660</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>+55 21 99194-4454</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>+55 21 99237-0909</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>+55 21 99632-5656</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>+55 21 99796-8005</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>+55 21 99942-3136</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>+55 22 98102-5445</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>+55 22 98137-6113</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>+55 22 99256-4199</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>+55 22 99614-2868</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>+55 22 99711-0403</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>+55 22 99881-6624</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>+55 22 99920-3985</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>+55 24 98100-5151</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>+55 24 98866-1706</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>+55 24 99290-5519</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>+55 24 99318-8075</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>+55 24 99325-7353</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>+55 24 99333-2350</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>+55 24 99819-3581</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>+55 24 99837-8010</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>+55 24 99904-8613</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>+55 24 99945-7403</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>+55 27 99630-2439</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>+55 27 99946-1309</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>+55 27 99981-9470</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>+55 28 99273-2296</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>+55 31 7129-2556</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>+55 31 7136-8740</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>+55 31 7233-9331</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>+55 31 8218-1788</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>+55 31 9161-5040</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>+55 31 9348-4200</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>+55 31 9866-2626</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>+55 32 9937-7154</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>+55 33 9138-1402</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>+55 34 8843-6171</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>+55 34 8850-1567</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>+55 34 9122-0393</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>+55 34 9295-4898</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>+55 34 9697-2283</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>+55 34 9711-9184</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>+55 34 9772-4205</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>+55 34 9773-3794</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>+55 34 9819-5292</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>+55 34 9855-8436</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>+55 34 9894-2156</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>+55 34 9895-2048</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>+55 34 9918-9775</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>+55 34 9966-1124</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>+55 35 7400-1518</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>+55 35 8815-0008</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>+55 35 9827-1794</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>+55 35 9949-7678</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>+55 37 8851-2919</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>+55 37 9109-1244</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>+55 37 9926-4430</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>+55 37 9953-1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>+55 38 8839-6140</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>+55 38 9944-1636</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>+55 38 9959-7785</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>+55 38 9984-8659</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>+55 41 8759-5663</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>+55 41 8783-0363</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>+55 41 93300-8749</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>+55 41 9519-9488</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>+55 41 9700-9880</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>+55 41 9788-7100</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>+55 41 9882-4461</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>+55 41 9898-0879</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>+55 41 9911-2176</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>+55 41 9935-4767</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>+55 41 9939-1228</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>+55 41 9984-0753</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>+55 42 9929-1322</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>+55 42 9951-5154</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>+55 43 8477-8642</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>+55 43 8868-1954</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>+55 43 9163-7945</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>+55 43 9600-5867</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>+55 43 9645-5443</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>+55 43 9653-7658</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>+55 43 9866-4402</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>+55 43 9978-2613</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>+55 43 9985-4500</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>+55 44 9803-5230</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>+55 46 9937-4009</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>+55 47 8919-0657</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>+55 47 9146-4678</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>+55 47 9166-3420</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>+55 47 9175-9055</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>+55 47 9273-3546</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>+55 47 9615-6445</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>+55 47 9670-1318</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>+55 47 9923-6578</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>+55 47 9955-2617</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>+55 48 8472-5073</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>+55 48 9614-4758</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>+55 48 9911-7643</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>+55 48 9966-5563</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>+55 49 9824-9529</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>+55 49 9840-7692</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>+55 49 9909-7510</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>+55 51 8044-7810</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>+55 51 8056-2723</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>+55 51 8070-3067</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>+55 51 8165-4532</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>+55 51 8172-2858</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>+55 51 8177-8972</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>+55 51 8205-0572</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>+55 51 8906-2341</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>+55 51 9130-1536</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>+55 51 9163-2256</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>+55 51 9171-4066</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>+55 51 9500-0704</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>+55 51 9521-5475</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>+55 51 9538-2184</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>+55 51 9547-0482</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>+55 51 9605-8170</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>+55 51 9738-3208</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>+55 51 9838-6681</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>+55 51 9877-5827</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>+55 51 9908-9568</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>+55 53 9185-6458</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>+55 53 9964-4949</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>+55 54 8105-7724</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>+55 54 9630-3451</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>+55 54 9639-6093</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>+55 54 9643-7264</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>+55 54 9663-5126</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>+55 54 9927-2680</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>+55 55 8411-6305</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>+55 55 9232-1747</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>+55 55 9626-1804</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>+55 55 9927-1550</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>+55 55 9998-2814</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>+55 61 8229-8732</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>+55 61 8302-3202</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>+55 61 8503-8436</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>+55 61 8627-7265</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>+55 61 8668-1383</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>+55 61 9120-1917</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>+55 61 9129-5777</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>+55 61 9461-0079</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>+55 61 9465-9091</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>+55 61 9528-9115</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>+55 61 9617-5898</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>+55 61 9808-1792</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>+55 62 8479-3333</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>+55 62 9182-0825</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>+55 62 9338-0222</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>+55 62 9801-5003</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>+55 63 8469-8798</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>+55 64 8125-8578</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>+55 64 9301-9588</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>+55 64 9653-9739</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>+55 65 8435-3987</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>+55 65 9255-3453</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>+55 65 9271-0782</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>+55 65 9325-6848</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>+55 65 9992-4492</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>+55 65 9995-3802</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>+55 66 9647-1342</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>+55 66 9685-7364</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>+55 66 9903-9120</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>+55 66 9910-0633</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>+55 67 9120-5969</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>+55 67 9151-1422</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>+55 67 9282-2099</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>+55 67 9623-4728</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>+55 67 9631-1647</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>+55 67 9668-4394</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>+55 67 9939-5726</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>+55 67 9958-2225</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>+55 68 9201-4759</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>+55 68 9992-9203</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>+55 69 9982-0278</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>+55 71 8439-7659</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>+55 71 8702-8118</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>+55 71 9157-8262</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>+55 71 9205-0533</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>+55 71 9282-5301</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>+55 71 9381-8670</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>+55 71 9696-6289</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>+55 73 8172-8723</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>+55 73 8176-1098</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>+55 73 9964-6480</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>+55 75 9829-8497</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>+55 75 9840-1481</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>+55 75 9994-2470</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>+55 77 8827-3287</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>+55 77 8828-1962</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>+55 77 9119-9204</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>+55 77 9848-5050</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>+55 79 9873-0757</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>+55 81 7333-8301</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>+55 81 8886-2113</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>+55 81 9377-3133</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>+55 82 9838-4869</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>+55 83 8748-8476</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>+55 83 9159-0197</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>+55 83 9168-8647</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>+55 83 9934-9058</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>+55 84 8173-5051</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>+55 84 8723-0399</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>+55 84 9125-7253</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>+55 85 8193-8844</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>+55 85 8768-6136</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>+55 85 8824-1109</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>+55 85 8847-2131</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>+55 85 9287-7402</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>+55 85 9417-1685</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>+55 85 9606-3268</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>+55 85 9675-8474</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>+55 85 9820-4193</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>+55 85 9914-2331</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>+55 86 9493-4036</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>+55 88 8149-4561</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>+55 88 9220-9517</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>+55 88 9848-3175</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>+55 91 8326-6408</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>+55 91 8402-6271</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>+55 91 8729-3488</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>+55 91 9110-7908</t>
         </is>
       </c>
     </row>
